--- a/masukan.xlsx
+++ b/masukan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TiveCS\Kuliah\Kecerdasan Buatan\tugas-program-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D4B784-5A32-4C53-BCA3-FD093C8C8A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168A527D-4770-477E-823D-8EF38D4973F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="116">
   <si>
     <t>ID Tempat</t>
   </si>
@@ -356,6 +356,30 @@
   </si>
   <si>
     <t>Ceker Mager</t>
+  </si>
+  <si>
+    <t>Bagus</t>
+  </si>
+  <si>
+    <t>Murah</t>
+  </si>
+  <si>
+    <t>Biasa</t>
+  </si>
+  <si>
+    <t>Mahal</t>
+  </si>
+  <si>
+    <t>Buruk</t>
+  </si>
+  <si>
+    <t>Oke</t>
+  </si>
+  <si>
+    <t>Tidak</t>
+  </si>
+  <si>
+    <t>Rating \ Harga</t>
   </si>
 </sst>
 </file>
@@ -365,7 +389,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -376,6 +400,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -414,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -425,6 +456,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,10 +675,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G1048576"/>
+  <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -654,10 +686,11 @@
     <col min="3" max="3" width="35.109375" customWidth="1"/>
     <col min="6" max="6" width="25.88671875" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="27" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -680,7 +713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -703,7 +736,7 @@
         <v>20125</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -726,7 +759,7 @@
         <v>18478.947368421053</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -749,7 +782,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -771,8 +804,20 @@
       <c r="G5" s="9">
         <v>18900</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J5" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K5" t="s">
+        <v>109</v>
+      </c>
+      <c r="L5" t="s">
+        <v>110</v>
+      </c>
+      <c r="M5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -794,8 +839,20 @@
       <c r="G6" s="9">
         <v>10060</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J6" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -817,8 +874,20 @@
       <c r="G7" s="9">
         <v>19953.488372093023</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -840,8 +909,20 @@
       <c r="G8" s="9">
         <v>2983.3333333333339</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>112</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -864,7 +945,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -887,7 +968,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -910,7 +991,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -933,7 +1014,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -956,7 +1037,7 @@
         <v>50843.75</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -979,7 +1060,7 @@
         <v>13760.869565217392</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1002,7 +1083,7 @@
         <v>15076.923076923076</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
